--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,117 +40,123 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>scary</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>hate</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>frightening</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>dark</t>
+    <t>serious</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>shocked</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
@@ -163,72 +169,63 @@
     <t>amazing</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>brilliant</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
+    <t>happy</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>essential</t>
+    <t>free</t>
   </si>
   <si>
     <t>powerful</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>2020</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
+    <t>first</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>first</t>
+    <t>worth</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>online</t>
   </si>
   <si>
     <t>live</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -238,7 +235,13 @@
     <t>many</t>
   </si>
   <si>
-    <t>real</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>highly</t>
@@ -247,25 +250,34 @@
     <t>well</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
     <t>watching</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>dilemma</t>
@@ -274,16 +286,10 @@
     <t>watch</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>media</t>
+    <t>’</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -652,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -716,10 +722,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -734,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -834,16 +840,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -855,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9807692307692307</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C6">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9230769230769231</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.7719298245614035</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1055,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,31 +1087,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>0.7</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L10">
-        <v>20</v>
-      </c>
-      <c r="M10">
-        <v>20</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1134,16 +1140,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.6666666666666666</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1213,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K13">
         <v>0.631578947368421</v>
@@ -1266,10 +1272,10 @@
         <v>0.75</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.6111111111111112</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1334,16 +1340,16 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1355,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7272727272727273</v>
+        <v>0.7</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1381,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.5384615384615384</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1405,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.725</v>
+        <v>0.7</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1431,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K17">
-        <v>0.4833333333333333</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1455,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1463,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.4814814814814815</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1513,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,16 +1540,16 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1563,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1605,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1613,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>0.4242424242424243</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1655,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1663,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.65</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>0.4166666666666667</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1705,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1713,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6470588235294118</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1731,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K23">
-        <v>0.375</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L23">
         <v>6</v>
@@ -1755,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1763,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6470588235294118</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1781,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K24">
-        <v>0.3611111111111111</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1805,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1813,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6170212765957447</v>
+        <v>0.625</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1831,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>0.3478260869565217</v>
+        <v>0.2449908925318761</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>269</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>269</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1855,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>829</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1863,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5833333333333334</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1881,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K26">
-        <v>0.2608695652173913</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1905,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,13 +1919,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5797101449275363</v>
+        <v>0.6</v>
       </c>
       <c r="C27">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1931,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>0.2542372881355932</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1963,13 +1969,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1981,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>0.2349726775956284</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="L28">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2005,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>840</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2013,13 +2019,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5652173913043478</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2031,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K29">
-        <v>0.2195121951219512</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2055,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2063,13 +2069,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5416666666666666</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2081,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K30">
-        <v>0.2037037037037037</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2105,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2113,38 +2119,38 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5384615384615384</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31">
+        <v>0.1521739130434783</v>
+      </c>
+      <c r="L31">
         <v>7</v>
       </c>
-      <c r="D31">
+      <c r="M31">
         <v>7</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K31">
-        <v>0.1639344262295082</v>
-      </c>
-      <c r="L31">
-        <v>10</v>
-      </c>
-      <c r="M31">
-        <v>10</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2166,10 +2172,10 @@
         <v>0.5</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2181,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K32">
-        <v>0.1521739130434783</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2205,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2234,16 +2240,16 @@
         <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>0.1506849315068493</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2255,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2263,13 +2269,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2281,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>0.1481481481481481</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2305,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2316,10 +2322,10 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2331,19 +2337,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K35">
-        <v>0.1473684210526316</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2355,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2366,10 +2372,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2381,19 +2387,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K36">
-        <v>0.1126760563380282</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2405,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2416,10 +2422,10 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2431,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K37">
-        <v>0.07058823529411765</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2455,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>79</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2463,38 +2469,38 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3333333333333333</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>25</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38">
+        <v>0.05109489051094891</v>
+      </c>
+      <c r="L38">
         <v>7</v>
       </c>
-      <c r="D38">
+      <c r="M38">
         <v>7</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>14</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38">
-        <v>0.04985337243401759</v>
-      </c>
-      <c r="L38">
-        <v>17</v>
-      </c>
-      <c r="M38">
-        <v>17</v>
-      </c>
       <c r="N38">
         <v>1</v>
       </c>
@@ -2505,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>324</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2513,13 +2519,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3214285714285715</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2531,19 +2537,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K39">
-        <v>0.04074074074074074</v>
+        <v>0.04985337243401759</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2555,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>518</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2563,13 +2569,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.141025641025641</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2581,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K40">
-        <v>0.03492063492063492</v>
+        <v>0.04240282685512368</v>
       </c>
       <c r="L40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2605,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>304</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2613,89 +2619,137 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0505050505050505</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>13</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41">
+        <v>0.04066265060240964</v>
+      </c>
+      <c r="L41">
+        <v>27</v>
+      </c>
+      <c r="M41">
+        <v>27</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>66</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.0472972972972973</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
         <v>17</v>
       </c>
-      <c r="E41">
-        <v>0.12</v>
-      </c>
-      <c r="F41">
-        <v>0.88</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
+      <c r="E43">
+        <v>0.18</v>
+      </c>
+      <c r="F43">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>282</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41">
-        <v>0.03409090909090909</v>
-      </c>
-      <c r="L41">
-        <v>21</v>
-      </c>
-      <c r="M41">
-        <v>21</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42">
-        <v>0.03180212014134275</v>
-      </c>
-      <c r="L42">
-        <v>9</v>
-      </c>
-      <c r="M42">
-        <v>9</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K43">
-        <v>0.03012048192771084</v>
+        <v>0.03084415584415584</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2707,21 +2761,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>644</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>0.02534562211981567</v>
+        <v>0.02176696542893726</v>
       </c>
       <c r="L44">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2733,21 +2787,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1692</v>
+        <v>764</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K45">
-        <v>0.02176696542893726</v>
+        <v>0.02131336405529954</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2759,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>764</v>
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
